--- a/src/test/java/day12_WebTables_excel/ulkeler.xlsx
+++ b/src/test/java/day12_WebTables_excel/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D1A50-D932-4B32-9800-BBC0BE1CCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E5AFAC-C410-44FC-927D-4D9C0D7CEAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1743,45 +1743,13 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>ilk sutun key, digerleri value olsun</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>"Belarus"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1A1A1A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve"> "Minsk, Belarus, Minsk"</t>
-    </r>
-  </si>
-  <si>
     <t>NUFUS</t>
   </si>
   <si>
-    <t>1000000</t>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>300000</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1757,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,20 +1776,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF1A1A1A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
@@ -2238,13 +2192,13 @@
   <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="36.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2261,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,11 +2245,8 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>573</v>
+      <c r="F3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2353,6 +2304,9 @@
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F7" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2493,9 +2447,7 @@
       <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>574</v>
-      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
